--- a/public/projects/CERTIFICACION MO-211/Wide World Importers.xlsx
+++ b/public/projects/CERTIFICACION MO-211/Wide World Importers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asdru\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T Irvin Pineda\Desktop\mo211-simulator (2)\mo211-simulator\public\projects\CERTIFICACION MO-211\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6E8057D-5951-43EC-899C-C1B76F90AE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443EEBE1-C7A5-42EB-89BE-A5D6C89FA419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="3" r:id="rId1"/>
@@ -22,8 +22,8 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId7"/>
-    <pivotCache cacheId="18" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -2605,11 +2605,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2661,8 +2661,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2675,8 +2683,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2693,6 +2707,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2700,24 +2790,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2726,12 +2816,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2742,6 +2826,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
@@ -2749,13 +2853,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2772,7 +2870,35 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2786,36 +2912,10 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{757EFC68-241B-49D3-80FD-BD4A72089922}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2841,7 +2941,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[SalesData - Proyecto - Wide World Importers.xlsx]Order Analysis!PivotTable3</c:name>
+    <c:name>[Wide World Importers.xlsx]Order Analysis!PivotTable3</c:name>
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
@@ -2944,7 +3044,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-SV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3000,7 +3100,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-SV"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4850,7 +4950,7 @@
             <c:numRef>
               <c:f>'Order Analysis'!$C$4:$C$198</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-"$"* #,##0.00_-;\-"$"* #,##0.00_-;_-"$"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="194"/>
                 <c:pt idx="0">
                   <c:v>15.11</c:v>
@@ -5604,7 +5704,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5612,6 +5711,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6603,7 +6703,7 @@
         <s v="French-Canadian Sugar Pie"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Unit Price" numFmtId="44">
+    <cacheField name="Unit Price" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.08" maxValue="49.74"/>
     </cacheField>
     <cacheField name="Quantity" numFmtId="0">
@@ -9232,7 +9332,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73C4A956-0A98-4052-B482-AB5CDC1D0456}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73C4A956-0A98-4052-B482-AB5CDC1D0456}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A102" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -9666,7 +9766,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAADCA13-36CB-4E2A-857C-9A2669A7025A}" name="PivotTable3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Customer ID">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAADCA13-36CB-4E2A-857C-9A2669A7025A}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Customer ID">
   <location ref="A3:C198" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -9887,7 +9987,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -10498,7 +10598,7 @@
   </pageFields>
   <dataFields count="2">
     <dataField name="Total Units" fld="5" baseField="2" baseItem="0"/>
-    <dataField name="Total Price" fld="4" baseField="2" baseItem="0" numFmtId="44"/>
+    <dataField name="Total Price" fld="4" baseField="2" baseItem="0" numFmtId="164"/>
   </dataFields>
   <chartFormats count="2">
     <chartFormat chart="7" format="0" series="1">
@@ -10546,15 +10646,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OrdersTable" displayName="OrdersTable" ref="A3:H199" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OrdersTable" displayName="OrdersTable" ref="A3:H199" headerRowDxfId="16">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Order ID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Order Date" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Customer ID" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Order ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Order Date" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Customer ID" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Product"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Unit Price" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantity" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Discount" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Unit Price" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantity" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Discount" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Region"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10562,34 +10662,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2B1A53F8-A39F-4C02-B164-EEA1F52574CE}" name="Table25" displayName="Table25" ref="A3:B83" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2B1A53F8-A39F-4C02-B164-EEA1F52574CE}" name="Table25" displayName="Table25" ref="A3:B83" totalsRowShown="0" headerRowDxfId="9">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{AF538A8F-098A-45C3-BFBD-B77A585C8F8B}" name="Product"/>
-    <tableColumn id="2" xr3:uid="{25F38738-0ABE-454D-B674-15131639985A}" name="Unit Price" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{25F38738-0ABE-454D-B674-15131639985A}" name="Unit Price" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EC7181DC-78EB-4F0D-A152-8E81FE2530D8}" name="Table257" displayName="Table257" ref="D3:E83" totalsRowShown="0" headerRowDxfId="1">
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{ACF17F78-FD68-4AE4-B602-A29A8D8CFB59}" name="Product"/>
-    <tableColumn id="2" xr3:uid="{BAEA0B5B-3717-4873-A605-4231095D9965}" name="Unit Price" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41433919-C7EC-4C8C-A995-AE7259D9DBC0}" name="Table2" displayName="Table2" ref="A3:F80" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41433919-C7EC-4C8C-A995-AE7259D9DBC0}" name="Table2" displayName="Table2" ref="A3:F80" totalsRowShown="0" headerRowDxfId="7">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{763562AD-1F50-4801-BE6D-6A57B2688737}" name="ID"/>
     <tableColumn id="2" xr3:uid="{D2643E02-B33E-4CF0-982F-0C0D4E3242BE}" name="Product Name"/>
-    <tableColumn id="3" xr3:uid="{BBC73D59-D513-4893-A1B1-8210CF4ACF5F}" name="Unit Price" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{C8934059-E678-40FC-BAF4-D911C1E803C2}" name="In Stock" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{629EE812-B522-490B-A09C-8C606E2E447B}" name="On Order" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{AFE626F5-90E0-4B8A-8E95-6F2F9A064DD1}" name="Discontinued" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{BBC73D59-D513-4893-A1B1-8210CF4ACF5F}" name="Unit Price" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{C8934059-E678-40FC-BAF4-D911C1E803C2}" name="In Stock" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{629EE812-B522-490B-A09C-8C606E2E447B}" name="On Order" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{AFE626F5-90E0-4B8A-8E95-6F2F9A064DD1}" name="Discontinued" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10886,29 +10976,29 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>774</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>414</v>
       </c>
@@ -10925,7 +11015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>572</v>
       </c>
@@ -10942,7 +11032,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>577</v>
       </c>
@@ -10959,7 +11049,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>582</v>
       </c>
@@ -10976,7 +11066,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>585</v>
       </c>
@@ -10993,7 +11083,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>589</v>
       </c>
@@ -11010,7 +11100,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>593</v>
       </c>
@@ -11027,7 +11117,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>596</v>
       </c>
@@ -11044,7 +11134,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>601</v>
       </c>
@@ -11061,7 +11151,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>605</v>
       </c>
@@ -11078,7 +11168,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>607</v>
       </c>
@@ -11095,7 +11185,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>609</v>
       </c>
@@ -11112,7 +11202,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>611</v>
       </c>
@@ -11129,7 +11219,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>613</v>
       </c>
@@ -11146,7 +11236,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>615</v>
       </c>
@@ -11163,7 +11253,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>617</v>
       </c>
@@ -11180,7 +11270,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>619</v>
       </c>
@@ -11197,7 +11287,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>621</v>
       </c>
@@ -11214,7 +11304,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>623</v>
       </c>
@@ -11231,7 +11321,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>625</v>
       </c>
@@ -11248,7 +11338,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>627</v>
       </c>
@@ -11265,7 +11355,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>629</v>
       </c>
@@ -11282,7 +11372,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>631</v>
       </c>
@@ -11299,7 +11389,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>633</v>
       </c>
@@ -11316,7 +11406,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>635</v>
       </c>
@@ -11333,7 +11423,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>637</v>
       </c>
@@ -11350,7 +11440,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>639</v>
       </c>
@@ -11367,7 +11457,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>641</v>
       </c>
@@ -11384,7 +11474,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>643</v>
       </c>
@@ -11401,7 +11491,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>645</v>
       </c>
@@ -11418,7 +11508,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>647</v>
       </c>
@@ -11435,7 +11525,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>649</v>
       </c>
@@ -11452,7 +11542,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>651</v>
       </c>
@@ -11469,7 +11559,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>653</v>
       </c>
@@ -11486,7 +11576,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>655</v>
       </c>
@@ -11503,7 +11593,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>657</v>
       </c>
@@ -11520,7 +11610,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>659</v>
       </c>
@@ -11537,7 +11627,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>661</v>
       </c>
@@ -11554,7 +11644,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>663</v>
       </c>
@@ -11571,7 +11661,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>665</v>
       </c>
@@ -11588,7 +11678,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>667</v>
       </c>
@@ -11605,7 +11695,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>669</v>
       </c>
@@ -11622,7 +11712,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>671</v>
       </c>
@@ -11639,7 +11729,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>673</v>
       </c>
@@ -11656,7 +11746,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>675</v>
       </c>
@@ -11673,7 +11763,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>677</v>
       </c>
@@ -11690,7 +11780,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>679</v>
       </c>
@@ -11707,7 +11797,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>681</v>
       </c>
@@ -11724,7 +11814,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>683</v>
       </c>
@@ -11741,7 +11831,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>685</v>
       </c>
@@ -11758,7 +11848,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>687</v>
       </c>
@@ -11775,7 +11865,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>689</v>
       </c>
@@ -11792,7 +11882,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>691</v>
       </c>
@@ -11809,7 +11899,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>693</v>
       </c>
@@ -11826,7 +11916,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>695</v>
       </c>
@@ -11843,7 +11933,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>697</v>
       </c>
@@ -11860,7 +11950,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>699</v>
       </c>
@@ -11877,7 +11967,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>701</v>
       </c>
@@ -11894,7 +11984,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>703</v>
       </c>
@@ -11911,7 +12001,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>705</v>
       </c>
@@ -11928,7 +12018,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>707</v>
       </c>
@@ -11945,7 +12035,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>709</v>
       </c>
@@ -11962,7 +12052,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>711</v>
       </c>
@@ -11979,7 +12069,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>713</v>
       </c>
@@ -11996,7 +12086,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>715</v>
       </c>
@@ -12013,7 +12103,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>717</v>
       </c>
@@ -12030,7 +12120,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>719</v>
       </c>
@@ -12047,7 +12137,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>721</v>
       </c>
@@ -12064,7 +12154,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>723</v>
       </c>
@@ -12081,7 +12171,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>725</v>
       </c>
@@ -12098,7 +12188,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>727</v>
       </c>
@@ -12115,7 +12205,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>729</v>
       </c>
@@ -12132,7 +12222,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>731</v>
       </c>
@@ -12149,7 +12239,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>733</v>
       </c>
@@ -12166,7 +12256,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>735</v>
       </c>
@@ -12183,7 +12273,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>737</v>
       </c>
@@ -12200,7 +12290,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>739</v>
       </c>
@@ -12217,7 +12307,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>741</v>
       </c>
@@ -12234,7 +12324,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>743</v>
       </c>
@@ -12251,7 +12341,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>745</v>
       </c>
@@ -12268,7 +12358,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>747</v>
       </c>
@@ -12285,7 +12375,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>749</v>
       </c>
@@ -12302,7 +12392,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>751</v>
       </c>
@@ -12319,7 +12409,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>753</v>
       </c>
@@ -12336,7 +12426,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>755</v>
       </c>
@@ -12353,7 +12443,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>757</v>
       </c>
@@ -12370,7 +12460,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>759</v>
       </c>
@@ -12387,7 +12477,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>761</v>
       </c>
@@ -12404,7 +12494,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>763</v>
       </c>
@@ -12421,7 +12511,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>765</v>
       </c>
@@ -12438,7 +12528,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>767</v>
       </c>
@@ -12455,7 +12545,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>769</v>
       </c>
@@ -12491,520 +12581,520 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="17" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="17" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="17" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="17" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="17" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="17" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="17" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="17" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="17" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="17" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="17" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="17" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="17" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="17" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="17" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="17" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="17" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="17" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="16" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="17" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="17" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="17" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="17" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="17" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="17" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="17" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="17" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="17" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="17" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="16" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="17" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="17" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="17" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="17" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="17" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="17" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="17" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="17" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="17" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="17" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="17" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="17" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="16" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
         <v>852</v>
       </c>
     </row>
@@ -13021,25 +13111,25 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>412</v>
       </c>
@@ -13051,7 +13141,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -13077,7 +13167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10260</v>
       </c>
@@ -13100,7 +13190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10261</v>
       </c>
@@ -13123,7 +13213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10262</v>
       </c>
@@ -13146,7 +13236,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10263</v>
       </c>
@@ -13169,7 +13259,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10264</v>
       </c>
@@ -13192,7 +13282,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10265</v>
       </c>
@@ -13215,7 +13305,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10266</v>
       </c>
@@ -13238,7 +13328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10267</v>
       </c>
@@ -13261,7 +13351,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10268</v>
       </c>
@@ -13284,7 +13374,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10269</v>
       </c>
@@ -13307,7 +13397,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10270</v>
       </c>
@@ -13330,7 +13420,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10271</v>
       </c>
@@ -13353,7 +13443,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10272</v>
       </c>
@@ -13376,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10273</v>
       </c>
@@ -13399,7 +13489,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10274</v>
       </c>
@@ -13422,7 +13512,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>10275</v>
       </c>
@@ -13445,7 +13535,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10276</v>
       </c>
@@ -13468,7 +13558,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>10277</v>
       </c>
@@ -13491,7 +13581,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10278</v>
       </c>
@@ -13514,7 +13604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10279</v>
       </c>
@@ -13537,7 +13627,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>10280</v>
       </c>
@@ -13560,7 +13650,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>10281</v>
       </c>
@@ -13583,7 +13673,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>10282</v>
       </c>
@@ -13606,7 +13696,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>10283</v>
       </c>
@@ -13629,7 +13719,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>10284</v>
       </c>
@@ -13652,7 +13742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>10285</v>
       </c>
@@ -13675,7 +13765,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>10286</v>
       </c>
@@ -13698,7 +13788,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>10287</v>
       </c>
@@ -13721,7 +13811,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>10288</v>
       </c>
@@ -13744,7 +13834,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>10289</v>
       </c>
@@ -13767,7 +13857,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>10290</v>
       </c>
@@ -13790,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>10291</v>
       </c>
@@ -13813,7 +13903,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>10292</v>
       </c>
@@ -13836,7 +13926,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>10293</v>
       </c>
@@ -13859,7 +13949,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>10294</v>
       </c>
@@ -13882,7 +13972,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>10295</v>
       </c>
@@ -13905,7 +13995,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>10296</v>
       </c>
@@ -13928,7 +14018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>10297</v>
       </c>
@@ -13951,7 +14041,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>10298</v>
       </c>
@@ -13974,7 +14064,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>10299</v>
       </c>
@@ -13997,7 +14087,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>10300</v>
       </c>
@@ -14020,7 +14110,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>10301</v>
       </c>
@@ -14043,7 +14133,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>10302</v>
       </c>
@@ -14066,7 +14156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>10303</v>
       </c>
@@ -14089,7 +14179,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>10304</v>
       </c>
@@ -14112,7 +14202,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>10305</v>
       </c>
@@ -14135,7 +14225,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>10306</v>
       </c>
@@ -14158,7 +14248,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>10307</v>
       </c>
@@ -14181,7 +14271,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>10308</v>
       </c>
@@ -14204,7 +14294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>10309</v>
       </c>
@@ -14227,7 +14317,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>10310</v>
       </c>
@@ -14250,7 +14340,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>10311</v>
       </c>
@@ -14273,7 +14363,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>10312</v>
       </c>
@@ -14296,7 +14386,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>10313</v>
       </c>
@@ -14319,7 +14409,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>10314</v>
       </c>
@@ -14342,7 +14432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>10315</v>
       </c>
@@ -14365,7 +14455,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>10316</v>
       </c>
@@ -14388,7 +14478,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>10317</v>
       </c>
@@ -14411,7 +14501,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>10318</v>
       </c>
@@ -14434,7 +14524,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>10319</v>
       </c>
@@ -14457,7 +14547,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>10320</v>
       </c>
@@ -14480,7 +14570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>10321</v>
       </c>
@@ -14503,7 +14593,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>10322</v>
       </c>
@@ -14526,7 +14616,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>10323</v>
       </c>
@@ -14549,7 +14639,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>10324</v>
       </c>
@@ -14572,7 +14662,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>10325</v>
       </c>
@@ -14595,7 +14685,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>10326</v>
       </c>
@@ -14618,7 +14708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>10327</v>
       </c>
@@ -14641,7 +14731,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>10328</v>
       </c>
@@ -14664,7 +14754,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>10329</v>
       </c>
@@ -14687,7 +14777,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>10330</v>
       </c>
@@ -14710,7 +14800,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>10331</v>
       </c>
@@ -14733,7 +14823,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>10332</v>
       </c>
@@ -14756,7 +14846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>10333</v>
       </c>
@@ -14779,7 +14869,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>10334</v>
       </c>
@@ -14802,7 +14892,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>10335</v>
       </c>
@@ -14825,7 +14915,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>10336</v>
       </c>
@@ -14848,7 +14938,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>10337</v>
       </c>
@@ -14871,7 +14961,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>10338</v>
       </c>
@@ -14894,7 +14984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>10339</v>
       </c>
@@ -14917,7 +15007,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>10340</v>
       </c>
@@ -14940,7 +15030,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>10341</v>
       </c>
@@ -14963,7 +15053,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>10342</v>
       </c>
@@ -14986,7 +15076,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>10343</v>
       </c>
@@ -15009,7 +15099,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>10344</v>
       </c>
@@ -15032,7 +15122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>10345</v>
       </c>
@@ -15055,7 +15145,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>10346</v>
       </c>
@@ -15078,7 +15168,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>10347</v>
       </c>
@@ -15101,7 +15191,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>10348</v>
       </c>
@@ -15124,7 +15214,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>10349</v>
       </c>
@@ -15147,7 +15237,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>10350</v>
       </c>
@@ -15170,7 +15260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>10351</v>
       </c>
@@ -15193,7 +15283,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>10352</v>
       </c>
@@ -15216,7 +15306,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>10353</v>
       </c>
@@ -15239,7 +15329,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>10354</v>
       </c>
@@ -15262,7 +15352,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>10355</v>
       </c>
@@ -15285,7 +15375,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>10356</v>
       </c>
@@ -15308,7 +15398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>10357</v>
       </c>
@@ -15331,7 +15421,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>10358</v>
       </c>
@@ -15354,7 +15444,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>10359</v>
       </c>
@@ -15377,7 +15467,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>10360</v>
       </c>
@@ -15400,7 +15490,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>10361</v>
       </c>
@@ -15423,7 +15513,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>10362</v>
       </c>
@@ -15446,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>10363</v>
       </c>
@@ -15469,7 +15559,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>10364</v>
       </c>
@@ -15492,7 +15582,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>10365</v>
       </c>
@@ -15515,7 +15605,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>10366</v>
       </c>
@@ -15538,7 +15628,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>10367</v>
       </c>
@@ -15561,7 +15651,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>10368</v>
       </c>
@@ -15584,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>10369</v>
       </c>
@@ -15607,7 +15697,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>10370</v>
       </c>
@@ -15630,7 +15720,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>10371</v>
       </c>
@@ -15653,7 +15743,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>10372</v>
       </c>
@@ -15676,7 +15766,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>10373</v>
       </c>
@@ -15699,7 +15789,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>10374</v>
       </c>
@@ -15722,7 +15812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>10375</v>
       </c>
@@ -15745,7 +15835,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>10376</v>
       </c>
@@ -15768,7 +15858,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>10377</v>
       </c>
@@ -15791,7 +15881,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>10378</v>
       </c>
@@ -15814,7 +15904,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>10379</v>
       </c>
@@ -15837,7 +15927,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>10380</v>
       </c>
@@ -15860,7 +15950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>10381</v>
       </c>
@@ -15883,7 +15973,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>10382</v>
       </c>
@@ -15906,7 +15996,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>10383</v>
       </c>
@@ -15929,7 +16019,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>10384</v>
       </c>
@@ -15952,7 +16042,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>10385</v>
       </c>
@@ -15975,7 +16065,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>10386</v>
       </c>
@@ -15998,7 +16088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>10387</v>
       </c>
@@ -16021,7 +16111,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>10388</v>
       </c>
@@ -16044,7 +16134,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>10389</v>
       </c>
@@ -16067,7 +16157,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>10390</v>
       </c>
@@ -16090,7 +16180,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>10391</v>
       </c>
@@ -16113,7 +16203,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>10392</v>
       </c>
@@ -16136,7 +16226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>10393</v>
       </c>
@@ -16159,7 +16249,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>10394</v>
       </c>
@@ -16182,7 +16272,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>10395</v>
       </c>
@@ -16205,7 +16295,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>10396</v>
       </c>
@@ -16228,7 +16318,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>10397</v>
       </c>
@@ -16251,7 +16341,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>10398</v>
       </c>
@@ -16274,7 +16364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>10399</v>
       </c>
@@ -16297,7 +16387,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>10400</v>
       </c>
@@ -16320,7 +16410,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>10401</v>
       </c>
@@ -16343,7 +16433,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>10402</v>
       </c>
@@ -16366,7 +16456,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>10403</v>
       </c>
@@ -16389,7 +16479,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>10404</v>
       </c>
@@ -16412,7 +16502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>10405</v>
       </c>
@@ -16435,7 +16525,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>10406</v>
       </c>
@@ -16458,7 +16548,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>10407</v>
       </c>
@@ -16481,7 +16571,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>10408</v>
       </c>
@@ -16504,7 +16594,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>10409</v>
       </c>
@@ -16527,7 +16617,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>10410</v>
       </c>
@@ -16550,7 +16640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>10411</v>
       </c>
@@ -16573,7 +16663,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>10412</v>
       </c>
@@ -16596,7 +16686,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>10413</v>
       </c>
@@ -16619,7 +16709,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>10414</v>
       </c>
@@ -16642,7 +16732,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>10415</v>
       </c>
@@ -16665,7 +16755,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>10416</v>
       </c>
@@ -16688,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>10417</v>
       </c>
@@ -16711,7 +16801,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>10418</v>
       </c>
@@ -16734,7 +16824,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>10419</v>
       </c>
@@ -16757,7 +16847,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>10420</v>
       </c>
@@ -16780,7 +16870,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>10421</v>
       </c>
@@ -16803,7 +16893,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>10422</v>
       </c>
@@ -16826,7 +16916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>10423</v>
       </c>
@@ -16849,7 +16939,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>10424</v>
       </c>
@@ -16872,7 +16962,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>10425</v>
       </c>
@@ -16895,7 +16985,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>10426</v>
       </c>
@@ -16918,7 +17008,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>10427</v>
       </c>
@@ -16941,7 +17031,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>10428</v>
       </c>
@@ -16964,7 +17054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>10429</v>
       </c>
@@ -16987,7 +17077,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>10430</v>
       </c>
@@ -17010,7 +17100,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>10431</v>
       </c>
@@ -17033,7 +17123,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>10432</v>
       </c>
@@ -17056,7 +17146,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>10433</v>
       </c>
@@ -17079,7 +17169,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>10434</v>
       </c>
@@ -17102,7 +17192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>10435</v>
       </c>
@@ -17125,7 +17215,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>10436</v>
       </c>
@@ -17148,7 +17238,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>10437</v>
       </c>
@@ -17171,7 +17261,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>10438</v>
       </c>
@@ -17194,7 +17284,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>10439</v>
       </c>
@@ -17217,7 +17307,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>10440</v>
       </c>
@@ -17240,7 +17330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>10441</v>
       </c>
@@ -17263,7 +17353,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>10442</v>
       </c>
@@ -17286,7 +17376,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>10443</v>
       </c>
@@ -17309,7 +17399,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>10444</v>
       </c>
@@ -17332,7 +17422,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>10445</v>
       </c>
@@ -17355,7 +17445,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>10446</v>
       </c>
@@ -17378,7 +17468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>10447</v>
       </c>
@@ -17401,7 +17491,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>10448</v>
       </c>
@@ -17424,7 +17514,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>10449</v>
       </c>
@@ -17447,7 +17537,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>10450</v>
       </c>
@@ -17470,7 +17560,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>10451</v>
       </c>
@@ -17493,7 +17583,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>10452</v>
       </c>
@@ -17516,7 +17606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>10453</v>
       </c>
@@ -17539,7 +17629,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>10454</v>
       </c>
@@ -17562,7 +17652,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>10455</v>
       </c>
@@ -17590,14 +17680,14 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G199">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>0.05</formula>
       <formula>0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17616,27 +17706,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1CA09E-041A-43C6-9D28-BA6118324107}">
   <dimension ref="A1:C198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -17646,8 +17736,8 @@
         <v>855</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>394</v>
       </c>
       <c r="B4" s="3">
@@ -17657,8 +17747,8 @@
         <v>15.11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>333</v>
       </c>
       <c r="B5" s="3">
@@ -17668,8 +17758,8 @@
         <v>25.22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="3">
@@ -17679,8 +17769,8 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>358</v>
       </c>
       <c r="B7" s="3">
@@ -17690,8 +17780,8 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="3">
@@ -17701,8 +17791,8 @@
         <v>19.05</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>410</v>
       </c>
       <c r="B9" s="3">
@@ -17712,8 +17802,8 @@
         <v>10.46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>327</v>
       </c>
       <c r="B10" s="3">
@@ -17723,8 +17813,8 @@
         <v>23.37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="3">
@@ -17734,8 +17824,8 @@
         <v>41.03</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>146</v>
       </c>
       <c r="B12" s="3">
@@ -17745,8 +17835,8 @@
         <v>34.83</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="3">
@@ -17756,8 +17846,8 @@
         <v>14.41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>299</v>
       </c>
       <c r="B14" s="3">
@@ -17767,8 +17857,8 @@
         <v>17.38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>182</v>
       </c>
       <c r="B15" s="3">
@@ -17778,8 +17868,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>190</v>
       </c>
       <c r="B16" s="3">
@@ -17789,8 +17879,8 @@
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>130</v>
       </c>
       <c r="B17" s="3">
@@ -17800,8 +17890,8 @@
         <v>49.74</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>378</v>
       </c>
       <c r="B18" s="3">
@@ -17811,8 +17901,8 @@
         <v>22.35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>254</v>
       </c>
       <c r="B19" s="3">
@@ -17822,8 +17912,8 @@
         <v>20.67</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>148</v>
       </c>
       <c r="B20" s="3">
@@ -17833,8 +17923,8 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>351</v>
       </c>
       <c r="B21" s="3">
@@ -17844,8 +17934,8 @@
         <v>40.08</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="3">
@@ -17855,8 +17945,8 @@
         <v>46.74</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B23" s="3">
@@ -17866,8 +17956,8 @@
         <v>11.65</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B24" s="3">
@@ -17877,8 +17967,8 @@
         <v>6.91</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="3">
@@ -17888,8 +17978,8 @@
         <v>19.260000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="3">
@@ -17899,8 +17989,8 @@
         <v>30.33</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>198</v>
       </c>
       <c r="B27" s="3">
@@ -17910,8 +18000,8 @@
         <v>35.99</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="3">
@@ -17921,8 +18011,8 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>124</v>
       </c>
       <c r="B29" s="3">
@@ -17932,8 +18022,8 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>214</v>
       </c>
       <c r="B30" s="3">
@@ -17943,8 +18033,8 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>295</v>
       </c>
       <c r="B31" s="3">
@@ -17954,8 +18044,8 @@
         <v>9.06</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>208</v>
       </c>
       <c r="B32" s="3">
@@ -17965,8 +18055,8 @@
         <v>27.35</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>252</v>
       </c>
       <c r="B33" s="3">
@@ -17976,8 +18066,8 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>268</v>
       </c>
       <c r="B34" s="3">
@@ -17987,8 +18077,8 @@
         <v>18.260000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B35" s="3">
@@ -17998,8 +18088,8 @@
         <v>32.01</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>315</v>
       </c>
       <c r="B36" s="3">
@@ -18009,8 +18099,8 @@
         <v>28.03</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B37" s="3">
@@ -18020,8 +18110,8 @@
         <v>21.16</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>285</v>
       </c>
       <c r="B38" s="3">
@@ -18031,8 +18121,8 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>293</v>
       </c>
       <c r="B39" s="3">
@@ -18042,8 +18132,8 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>92</v>
       </c>
       <c r="B40" s="3">
@@ -18053,8 +18143,8 @@
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>275</v>
       </c>
       <c r="B41" s="3">
@@ -18064,8 +18154,8 @@
         <v>48.86</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>402</v>
       </c>
       <c r="B42" s="3">
@@ -18075,8 +18165,8 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="3">
@@ -18086,8 +18176,8 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
         <v>234</v>
       </c>
       <c r="B44" s="3">
@@ -18097,8 +18187,8 @@
         <v>39.57</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>260</v>
       </c>
       <c r="B45" s="3">
@@ -18108,8 +18198,8 @@
         <v>11.77</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>144</v>
       </c>
       <c r="B46" s="3">
@@ -18119,8 +18209,8 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
         <v>277</v>
       </c>
       <c r="B47" s="3">
@@ -18130,8 +18220,8 @@
         <v>42.03</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
         <v>343</v>
       </c>
       <c r="B48" s="3">
@@ -18141,8 +18231,8 @@
         <v>58.769999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B49" s="3">
@@ -18152,8 +18242,8 @@
         <v>49.57</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>321</v>
       </c>
       <c r="B50" s="3">
@@ -18163,8 +18253,8 @@
         <v>38.369999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>305</v>
       </c>
       <c r="B51" s="3">
@@ -18174,8 +18264,8 @@
         <v>29.55</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
         <v>319</v>
       </c>
       <c r="B52" s="3">
@@ -18185,8 +18275,8 @@
         <v>14.45</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B53" s="3">
@@ -18196,8 +18286,8 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
         <v>364</v>
       </c>
       <c r="B54" s="3">
@@ -18207,8 +18297,8 @@
         <v>15.57</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
         <v>329</v>
       </c>
       <c r="B55" s="3">
@@ -18218,8 +18308,8 @@
         <v>22.81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B56" s="3">
@@ -18229,8 +18319,8 @@
         <v>11.29</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="3">
@@ -18240,8 +18330,8 @@
         <v>13.64</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B58" s="3">
@@ -18251,8 +18341,8 @@
         <v>20.440000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
         <v>118</v>
       </c>
       <c r="B59" s="3">
@@ -18262,8 +18352,8 @@
         <v>48.21</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
         <v>368</v>
       </c>
       <c r="B60" s="3">
@@ -18273,8 +18363,8 @@
         <v>14.12</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B61" s="3">
@@ -18284,8 +18374,8 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
         <v>224</v>
       </c>
       <c r="B62" s="3">
@@ -18295,8 +18385,8 @@
         <v>45.23</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>353</v>
       </c>
       <c r="B63" s="3">
@@ -18306,8 +18396,8 @@
         <v>33.97</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B64" s="3">
@@ -18317,8 +18407,8 @@
         <v>37.64</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>240</v>
       </c>
       <c r="B65" s="3">
@@ -18328,8 +18418,8 @@
         <v>35.17</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
         <v>170</v>
       </c>
       <c r="B66" s="3">
@@ -18339,8 +18429,8 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
         <v>174</v>
       </c>
       <c r="B67" s="3">
@@ -18350,8 +18440,8 @@
         <v>46.18</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="16" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
         <v>309</v>
       </c>
       <c r="B68" s="3">
@@ -18361,8 +18451,8 @@
         <v>28.98</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B69" s="3">
@@ -18372,8 +18462,8 @@
         <v>18.88</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="16" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
         <v>162</v>
       </c>
       <c r="B70" s="3">
@@ -18383,8 +18473,8 @@
         <v>39.85</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="16" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
         <v>291</v>
       </c>
       <c r="B71" s="3">
@@ -18394,8 +18484,8 @@
         <v>46.57</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="16" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
         <v>396</v>
       </c>
       <c r="B72" s="3">
@@ -18405,8 +18495,8 @@
         <v>34.369999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="16" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
         <v>337</v>
       </c>
       <c r="B73" s="3">
@@ -18416,8 +18506,8 @@
         <v>20.37</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="16" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
         <v>270</v>
       </c>
       <c r="B74" s="3">
@@ -18427,8 +18517,8 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="16" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
         <v>347</v>
       </c>
       <c r="B75" s="3">
@@ -18438,8 +18528,8 @@
         <v>44.96</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="16" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
         <v>283</v>
       </c>
       <c r="B76" s="3">
@@ -18449,8 +18539,8 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="16" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
         <v>202</v>
       </c>
       <c r="B77" s="3">
@@ -18460,8 +18550,8 @@
         <v>30.42</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="16" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
         <v>325</v>
       </c>
       <c r="B78" s="3">
@@ -18471,8 +18561,8 @@
         <v>28.85</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="16" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
         <v>238</v>
       </c>
       <c r="B79" s="3">
@@ -18482,8 +18572,8 @@
         <v>43.62</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="16" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B80" s="3">
@@ -18493,8 +18583,8 @@
         <v>33.950000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="16" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
         <v>289</v>
       </c>
       <c r="B81" s="3">
@@ -18504,8 +18594,8 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="16" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B82" s="3">
@@ -18515,8 +18605,8 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="16" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
         <v>376</v>
       </c>
       <c r="B83" s="3">
@@ -18526,8 +18616,8 @@
         <v>37.020000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="16" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B84" s="3">
@@ -18537,8 +18627,8 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="16" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
         <v>192</v>
       </c>
       <c r="B85" s="3">
@@ -18548,8 +18638,8 @@
         <v>43.25</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="16" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
         <v>218</v>
       </c>
       <c r="B86" s="3">
@@ -18559,8 +18649,8 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="16" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B87" s="3">
@@ -18570,8 +18660,8 @@
         <v>46.45</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="16" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
         <v>180</v>
       </c>
       <c r="B88" s="3">
@@ -18581,8 +18671,8 @@
         <v>35.119999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="16" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
         <v>262</v>
       </c>
       <c r="B89" s="3">
@@ -18592,8 +18682,8 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="16" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B90" s="3">
@@ -18603,8 +18693,8 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="16" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
         <v>307</v>
       </c>
       <c r="B91" s="3">
@@ -18614,8 +18704,8 @@
         <v>22.15</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="16" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
         <v>390</v>
       </c>
       <c r="B92" s="3">
@@ -18625,8 +18715,8 @@
         <v>33.03</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="16" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
         <v>196</v>
       </c>
       <c r="B93" s="3">
@@ -18636,8 +18726,8 @@
         <v>31.19</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="16" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
         <v>132</v>
       </c>
       <c r="B94" s="3">
@@ -18647,8 +18737,8 @@
         <v>14.91</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="16" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
         <v>206</v>
       </c>
       <c r="B95" s="3">
@@ -18658,8 +18748,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="16" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B96" s="3">
@@ -18669,8 +18759,8 @@
         <v>33.46</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="16" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B97" s="3">
@@ -18680,8 +18770,8 @@
         <v>36.409999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="16" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
         <v>372</v>
       </c>
       <c r="B98" s="3">
@@ -18691,8 +18781,8 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="16" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
         <v>140</v>
       </c>
       <c r="B99" s="3">
@@ -18702,8 +18792,8 @@
         <v>29.16</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="16" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
         <v>142</v>
       </c>
       <c r="B100" s="3">
@@ -18713,8 +18803,8 @@
         <v>38.909999999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="16" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
         <v>178</v>
       </c>
       <c r="B101" s="3">
@@ -18724,8 +18814,8 @@
         <v>35.56</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="16" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B102" s="3">
@@ -18735,8 +18825,8 @@
         <v>18.489999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="16" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
         <v>216</v>
       </c>
       <c r="B103" s="3">
@@ -18746,8 +18836,8 @@
         <v>47.55</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="16" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B104" s="3">
@@ -18757,8 +18847,8 @@
         <v>38.020000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="16" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
         <v>374</v>
       </c>
       <c r="B105" s="3">
@@ -18768,8 +18858,8 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="16" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
         <v>244</v>
       </c>
       <c r="B106" s="3">
@@ -18779,8 +18869,8 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="16" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
         <v>388</v>
       </c>
       <c r="B107" s="3">
@@ -18790,8 +18880,8 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="16" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
         <v>258</v>
       </c>
       <c r="B108" s="3">
@@ -18801,8 +18891,8 @@
         <v>46.18</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="16" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B109" s="3">
@@ -18812,8 +18902,8 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="16" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
         <v>236</v>
       </c>
       <c r="B110" s="3">
@@ -18823,8 +18913,8 @@
         <v>47.25</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="16" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
         <v>360</v>
       </c>
       <c r="B111" s="3">
@@ -18834,8 +18924,8 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="16" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
         <v>232</v>
       </c>
       <c r="B112" s="3">
@@ -18845,8 +18935,8 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="16" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B113" s="3">
@@ -18856,8 +18946,8 @@
         <v>8.84</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="16" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
         <v>204</v>
       </c>
       <c r="B114" s="3">
@@ -18867,8 +18957,8 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="16" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B115" s="3">
@@ -18878,8 +18968,8 @@
         <v>45.54</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="16" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
         <v>384</v>
       </c>
       <c r="B116" s="3">
@@ -18889,8 +18979,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="16" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
         <v>138</v>
       </c>
       <c r="B117" s="3">
@@ -18900,8 +18990,8 @@
         <v>24.58</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="16" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
         <v>210</v>
       </c>
       <c r="B118" s="3">
@@ -18911,8 +19001,8 @@
         <v>15.01</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="16" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
         <v>200</v>
       </c>
       <c r="B119" s="3">
@@ -18922,8 +19012,8 @@
         <v>47.41</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="16" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
         <v>331</v>
       </c>
       <c r="B120" s="3">
@@ -18933,8 +19023,8 @@
         <v>41.54</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="16" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B121" s="3">
@@ -18944,8 +19034,8 @@
         <v>23.79</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="16" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
         <v>301</v>
       </c>
       <c r="B122" s="3">
@@ -18955,8 +19045,8 @@
         <v>38.630000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="16" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
         <v>400</v>
       </c>
       <c r="B123" s="3">
@@ -18966,8 +19056,8 @@
         <v>46.13</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="16" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B124" s="3">
@@ -18977,8 +19067,8 @@
         <v>29.54</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="16" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
         <v>212</v>
       </c>
       <c r="B125" s="3">
@@ -18988,8 +19078,8 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="16" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
         <v>345</v>
       </c>
       <c r="B126" s="3">
@@ -18999,8 +19089,8 @@
         <v>48.03</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="16" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
         <v>335</v>
       </c>
       <c r="B127" s="3">
@@ -19010,8 +19100,8 @@
         <v>42.13</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="16" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
         <v>317</v>
       </c>
       <c r="B128" s="3">
@@ -19021,8 +19111,8 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="16" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B129" s="3">
@@ -19032,8 +19122,8 @@
         <v>49.39</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="16" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B130" s="3">
@@ -19043,8 +19133,8 @@
         <v>42.48</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="16" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B131" s="3">
@@ -19054,8 +19144,8 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="16" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B132" s="3">
@@ -19065,8 +19155,8 @@
         <v>47.35</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="16" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
         <v>392</v>
       </c>
       <c r="B133" s="3">
@@ -19076,8 +19166,8 @@
         <v>49.29</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="16" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B134" s="3">
@@ -19087,8 +19177,8 @@
         <v>43.72</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="16" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
         <v>168</v>
       </c>
       <c r="B135" s="3">
@@ -19098,8 +19188,8 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="16" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
         <v>398</v>
       </c>
       <c r="B136" s="3">
@@ -19109,8 +19199,8 @@
         <v>16.04</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="16" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="14" t="s">
         <v>194</v>
       </c>
       <c r="B137" s="3">
@@ -19120,8 +19210,8 @@
         <v>19.010000000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="16" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
         <v>366</v>
       </c>
       <c r="B138" s="3">
@@ -19131,8 +19221,8 @@
         <v>31.34</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="16" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="14" t="s">
         <v>341</v>
       </c>
       <c r="B139" s="3">
@@ -19142,8 +19232,8 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="16" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B140" s="3">
@@ -19153,8 +19243,8 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="16" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="14" t="s">
         <v>128</v>
       </c>
       <c r="B141" s="3">
@@ -19164,8 +19254,8 @@
         <v>34.44</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="16" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="14" t="s">
         <v>370</v>
       </c>
       <c r="B142" s="3">
@@ -19175,8 +19265,8 @@
         <v>40.28</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="16" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B143" s="3">
@@ -19186,8 +19276,8 @@
         <v>36.25</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="16" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="14" t="s">
         <v>386</v>
       </c>
       <c r="B144" s="3">
@@ -19197,8 +19287,8 @@
         <v>18.29</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="16" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B145" s="3">
@@ -19208,8 +19298,8 @@
         <v>9.42</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="16" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="14" t="s">
         <v>406</v>
       </c>
       <c r="B146" s="3">
@@ -19219,8 +19309,8 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="16" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B147" s="3">
@@ -19230,8 +19320,8 @@
         <v>28.01</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="16" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B148" s="3">
@@ -19241,8 +19331,8 @@
         <v>9.64</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="16" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="s">
         <v>297</v>
       </c>
       <c r="B149" s="3">
@@ -19252,8 +19342,8 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="16" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B150" s="3">
@@ -19263,8 +19353,8 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="16" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="14" t="s">
         <v>339</v>
       </c>
       <c r="B151" s="3">
@@ -19274,8 +19364,8 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="16" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
         <v>220</v>
       </c>
       <c r="B152" s="3">
@@ -19285,8 +19375,8 @@
         <v>41.37</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="16" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="14" t="s">
         <v>287</v>
       </c>
       <c r="B153" s="3">
@@ -19296,8 +19386,8 @@
         <v>23.04</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="16" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="14" t="s">
         <v>230</v>
       </c>
       <c r="B154" s="3">
@@ -19307,8 +19397,8 @@
         <v>19.739999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="16" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="14" t="s">
         <v>349</v>
       </c>
       <c r="B155" s="3">
@@ -19318,8 +19408,8 @@
         <v>42.56</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="16" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B156" s="3">
@@ -19329,8 +19419,8 @@
         <v>24.38</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="16" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="14" t="s">
         <v>188</v>
       </c>
       <c r="B157" s="3">
@@ -19340,8 +19430,8 @@
         <v>26.57</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="16" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="14" t="s">
         <v>248</v>
       </c>
       <c r="B158" s="3">
@@ -19351,8 +19441,8 @@
         <v>17.95</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="16" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="14" t="s">
         <v>272</v>
       </c>
       <c r="B159" s="3">
@@ -19362,8 +19452,8 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="16" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="14" t="s">
         <v>176</v>
       </c>
       <c r="B160" s="3">
@@ -19373,8 +19463,8 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="16" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B161" s="3">
@@ -19384,8 +19474,8 @@
         <v>41.15</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="16" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B162" s="3">
@@ -19395,8 +19485,8 @@
         <v>37.24</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="16" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B163" s="3">
@@ -19406,8 +19496,8 @@
         <v>41.56</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="16" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="14" t="s">
         <v>404</v>
       </c>
       <c r="B164" s="3">
@@ -19417,8 +19507,8 @@
         <v>27.41</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="16" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B165" s="3">
@@ -19428,8 +19518,8 @@
         <v>27.68</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="16" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="14" t="s">
         <v>356</v>
       </c>
       <c r="B166" s="3">
@@ -19439,8 +19529,8 @@
         <v>27.35</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="16" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="14" t="s">
         <v>156</v>
       </c>
       <c r="B167" s="3">
@@ -19450,8 +19540,8 @@
         <v>8.51</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="16" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B168" s="3">
@@ -19461,8 +19551,8 @@
         <v>26.59</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="16" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="14" t="s">
         <v>226</v>
       </c>
       <c r="B169" s="3">
@@ -19472,8 +19562,8 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="16" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="14" t="s">
         <v>184</v>
       </c>
       <c r="B170" s="3">
@@ -19483,8 +19573,8 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="16" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="14" t="s">
         <v>303</v>
       </c>
       <c r="B171" s="3">
@@ -19494,8 +19584,8 @@
         <v>41.78</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="16" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="14" t="s">
         <v>279</v>
       </c>
       <c r="B172" s="3">
@@ -19505,8 +19595,8 @@
         <v>33.619999999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="16" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="14" t="s">
         <v>186</v>
       </c>
       <c r="B173" s="3">
@@ -19516,8 +19606,8 @@
         <v>30.39</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="16" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="14" t="s">
         <v>228</v>
       </c>
       <c r="B174" s="3">
@@ -19527,8 +19617,8 @@
         <v>31.96</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="16" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B175" s="3">
@@ -19538,8 +19628,8 @@
         <v>26.05</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="16" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B176" s="3">
@@ -19549,8 +19639,8 @@
         <v>10.65</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="16" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="14" t="s">
         <v>250</v>
       </c>
       <c r="B177" s="3">
@@ -19560,8 +19650,8 @@
         <v>23.76</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="16" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B178" s="3">
@@ -19571,8 +19661,8 @@
         <v>41.81</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="16" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="14" t="s">
         <v>126</v>
       </c>
       <c r="B179" s="3">
@@ -19582,8 +19672,8 @@
         <v>44.87</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="16" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="14" t="s">
         <v>246</v>
       </c>
       <c r="B180" s="3">
@@ -19593,8 +19683,8 @@
         <v>13.06</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="16" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="14" t="s">
         <v>266</v>
       </c>
       <c r="B181" s="3">
@@ -19604,8 +19694,8 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="16" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="14" t="s">
         <v>264</v>
       </c>
       <c r="B182" s="3">
@@ -19615,8 +19705,8 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="16" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B183" s="3">
@@ -19626,8 +19716,8 @@
         <v>22.78</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="16" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="14" t="s">
         <v>120</v>
       </c>
       <c r="B184" s="3">
@@ -19637,8 +19727,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="16" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B185" s="3">
@@ -19648,8 +19738,8 @@
         <v>12.34</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="16" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B186" s="3">
@@ -19659,8 +19749,8 @@
         <v>40.89</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="16" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="14" t="s">
         <v>380</v>
       </c>
       <c r="B187" s="3">
@@ -19670,8 +19760,8 @@
         <v>29.58</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="16" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="14" t="s">
         <v>408</v>
       </c>
       <c r="B188" s="3">
@@ -19681,8 +19771,8 @@
         <v>45.83</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="16" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="14" t="s">
         <v>242</v>
       </c>
       <c r="B189" s="3">
@@ -19692,8 +19782,8 @@
         <v>41.46</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="16" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="14" t="s">
         <v>281</v>
       </c>
       <c r="B190" s="3">
@@ -19703,8 +19793,8 @@
         <v>49.38</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="16" t="s">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B191" s="3">
@@ -19714,8 +19804,8 @@
         <v>30.959999999999997</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="16" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B192" s="3">
@@ -19725,8 +19815,8 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="16" t="s">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="14" t="s">
         <v>362</v>
       </c>
       <c r="B193" s="3">
@@ -19736,8 +19826,8 @@
         <v>16.690000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="16" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B194" s="3">
@@ -19747,8 +19837,8 @@
         <v>47.76</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="16" t="s">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="14" t="s">
         <v>256</v>
       </c>
       <c r="B195" s="3">
@@ -19758,8 +19848,8 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="16" t="s">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="14" t="s">
         <v>222</v>
       </c>
       <c r="B196" s="3">
@@ -19769,8 +19859,8 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="16" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="14" t="s">
         <v>382</v>
       </c>
       <c r="B197" s="3">
@@ -19780,8 +19870,8 @@
         <v>16.14</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="16" t="s">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="14" t="s">
         <v>852</v>
       </c>
       <c r="B198" s="3">
@@ -19801,25 +19891,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F312BD6-EFB7-4E4C-B126-C76CF4CB60B3}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>777</v>
       </c>
@@ -19829,739 +19919,819 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>778</v>
       </c>
       <c r="B4" s="2">
         <v>12.5</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>424</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>779</v>
       </c>
       <c r="B6" s="2">
         <v>15</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>780</v>
       </c>
       <c r="B7" s="2">
         <v>97</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>781</v>
       </c>
       <c r="B8" s="2">
         <v>21</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>782</v>
       </c>
       <c r="B9" s="2">
         <v>18</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>18.399999999999999</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>571</v>
       </c>
       <c r="B11" s="2">
         <v>13</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>426</v>
       </c>
       <c r="B12" s="2">
         <v>22</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>783</v>
       </c>
       <c r="B13" s="2">
         <v>34</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>784</v>
       </c>
       <c r="B14" s="2">
         <v>28.5</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>785</v>
       </c>
       <c r="B15" s="2">
         <v>12.75</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>420</v>
       </c>
       <c r="B16" s="2">
         <v>18</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>12.8</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>21.5</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>786</v>
       </c>
       <c r="B19" s="2">
         <v>23.5</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>787</v>
       </c>
       <c r="B20" s="2">
         <v>97.5</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>788</v>
       </c>
       <c r="B21" s="2">
         <v>40</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>789</v>
       </c>
       <c r="B22" s="2">
         <v>32</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>790</v>
       </c>
       <c r="B23" s="2">
         <v>15.5</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>791</v>
       </c>
       <c r="B24" s="2">
         <v>53</v>
       </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>792</v>
       </c>
       <c r="B25" s="2">
         <v>30</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>793</v>
       </c>
       <c r="B26" s="2">
         <v>18.399999999999999</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>794</v>
       </c>
       <c r="B27" s="2">
         <v>38</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>795</v>
       </c>
       <c r="B28" s="2">
         <v>120</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>796</v>
       </c>
       <c r="B29" s="2">
         <v>5.5</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>797</v>
       </c>
       <c r="B30" s="2">
         <v>123.79</v>
       </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>798</v>
       </c>
       <c r="B31" s="2">
         <v>38</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>799</v>
       </c>
       <c r="B32" s="2">
         <v>36.5</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>800</v>
       </c>
       <c r="B33" s="2">
         <v>21.5</v>
       </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>801</v>
       </c>
       <c r="B34" s="2">
         <v>18</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="2">
         <v>21.35</v>
       </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>802</v>
       </c>
       <c r="B36" s="2">
         <v>17</v>
       </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>803</v>
       </c>
       <c r="B37" s="2">
         <v>25</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>804</v>
       </c>
       <c r="B38" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>805</v>
       </c>
       <c r="B39" s="2">
         <v>18.399999999999999</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>806</v>
       </c>
       <c r="B40" s="2">
         <v>46</v>
       </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>807</v>
       </c>
       <c r="B41" s="2">
         <v>16</v>
       </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>808</v>
       </c>
       <c r="B42" s="2">
         <v>55</v>
       </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>809</v>
       </c>
       <c r="B43" s="2">
         <v>30</v>
       </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>810</v>
       </c>
       <c r="B44" s="2">
         <v>97</v>
       </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>811</v>
       </c>
       <c r="B45" s="2">
         <v>39</v>
       </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>812</v>
       </c>
       <c r="B46" s="2">
         <v>19</v>
       </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>813</v>
       </c>
       <c r="B47" s="2">
         <v>38</v>
       </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D47" s="23"/>
+      <c r="E47" s="24"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>814</v>
       </c>
       <c r="B48" s="2">
         <v>18</v>
       </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>815</v>
       </c>
       <c r="B49" s="2">
         <v>28.5</v>
       </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D49" s="23"/>
+      <c r="E49" s="24"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>816</v>
       </c>
       <c r="B50" s="2">
         <v>12.75</v>
       </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D50" s="25"/>
+      <c r="E50" s="26"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>817</v>
       </c>
       <c r="B51" s="2">
         <v>32</v>
       </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>818</v>
       </c>
       <c r="B52" s="2">
         <v>34</v>
       </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D52" s="25"/>
+      <c r="E52" s="26"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>819</v>
       </c>
       <c r="B53" s="2">
         <v>15.5</v>
       </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D53" s="23"/>
+      <c r="E53" s="24"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>820</v>
       </c>
       <c r="B54" s="2">
         <v>25</v>
       </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>821</v>
       </c>
       <c r="B55" s="2">
         <v>81</v>
       </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>822</v>
       </c>
       <c r="B56" s="2">
         <v>24</v>
       </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D56" s="25"/>
+      <c r="E56" s="26"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>823</v>
       </c>
       <c r="B57" s="2">
         <v>21</v>
       </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>824</v>
       </c>
       <c r="B58" s="2">
         <v>32.799999999999997</v>
       </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>825</v>
       </c>
       <c r="B59" s="2">
         <v>19</v>
       </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D59" s="23"/>
+      <c r="E59" s="24"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>826</v>
       </c>
       <c r="B60" s="2">
         <v>36</v>
       </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D60" s="25"/>
+      <c r="E60" s="26"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>827</v>
       </c>
       <c r="B61" s="2">
         <v>26</v>
       </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D61" s="23"/>
+      <c r="E61" s="24"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>828</v>
       </c>
       <c r="B62" s="2">
         <v>18</v>
       </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>829</v>
       </c>
       <c r="B63" s="2">
         <v>6.5</v>
       </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D63" s="23"/>
+      <c r="E63" s="24"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>830</v>
       </c>
       <c r="B64" s="2">
         <v>24</v>
       </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D64" s="25"/>
+      <c r="E64" s="26"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>831</v>
       </c>
       <c r="B65" s="2">
         <v>55</v>
       </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D65" s="23"/>
+      <c r="E65" s="24"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>832</v>
       </c>
       <c r="B66" s="2">
         <v>7.45</v>
       </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D66" s="25"/>
+      <c r="E66" s="26"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>833</v>
       </c>
       <c r="B67" s="2">
         <v>25</v>
       </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D67" s="23"/>
+      <c r="E67" s="24"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>834</v>
       </c>
       <c r="B68" s="2">
         <v>15</v>
       </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>835</v>
       </c>
       <c r="B69" s="2">
         <v>38</v>
       </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D69" s="23"/>
+      <c r="E69" s="24"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>836</v>
       </c>
       <c r="B70" s="2">
         <v>12.5</v>
       </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D70" s="25"/>
+      <c r="E70" s="26"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>837</v>
       </c>
       <c r="B71" s="2">
         <v>100</v>
       </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D71" s="23"/>
+      <c r="E71" s="24"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>838</v>
       </c>
       <c r="B72" s="2">
         <v>26</v>
       </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D72" s="25"/>
+      <c r="E72" s="26"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>839</v>
       </c>
       <c r="B73" s="2">
         <v>21.5</v>
       </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D73" s="23"/>
+      <c r="E73" s="24"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>840</v>
       </c>
       <c r="B74" s="2">
         <v>26</v>
       </c>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D74" s="25"/>
+      <c r="E74" s="26"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>841</v>
       </c>
       <c r="B75" s="2">
         <v>19.5</v>
       </c>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D75" s="23"/>
+      <c r="E75" s="24"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>842</v>
       </c>
       <c r="B76" s="2">
         <v>4.5</v>
       </c>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D76" s="25"/>
+      <c r="E76" s="26"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>843</v>
       </c>
       <c r="B77" s="2">
         <v>21.35</v>
       </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D77" s="23"/>
+      <c r="E77" s="24"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>844</v>
       </c>
       <c r="B78" s="2">
         <v>21.5</v>
       </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D78" s="25"/>
+      <c r="E78" s="26"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>845</v>
       </c>
       <c r="B79" s="2">
         <v>150</v>
       </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D79" s="23"/>
+      <c r="E79" s="24"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>846</v>
       </c>
       <c r="B80" s="2">
         <v>40</v>
       </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D80" s="25"/>
+      <c r="E80" s="26"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>847</v>
       </c>
       <c r="B81" s="2">
         <v>18</v>
       </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D81" s="23"/>
+      <c r="E81" s="24"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>848</v>
       </c>
       <c r="B82" s="2">
         <v>2.5</v>
       </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D82" s="25"/>
+      <c r="E82" s="26"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>849</v>
       </c>
       <c r="B83" s="2">
         <v>7.75</v>
       </c>
-      <c r="E83" s="2"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -20569,9 +20739,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -20584,24 +20753,24 @@
       <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>413</v>
       </c>
@@ -20614,7 +20783,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>414</v>
       </c>
@@ -20635,7 +20804,7 @@
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>419</v>
       </c>
@@ -20653,7 +20822,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>421</v>
       </c>
@@ -20671,7 +20840,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>423</v>
       </c>
@@ -20689,7 +20858,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>425</v>
       </c>
@@ -20709,7 +20878,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>428</v>
       </c>
@@ -20729,7 +20898,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>429</v>
       </c>
@@ -20747,7 +20916,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>431</v>
       </c>
@@ -20765,7 +20934,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>433</v>
       </c>
@@ -20785,7 +20954,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>435</v>
       </c>
@@ -20803,7 +20972,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>437</v>
       </c>
@@ -20821,7 +20990,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>439</v>
       </c>
@@ -20839,7 +21008,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>441</v>
       </c>
@@ -20857,7 +21026,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>443</v>
       </c>
@@ -20875,7 +21044,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>445</v>
       </c>
@@ -20893,7 +21062,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>447</v>
       </c>
@@ -20911,7 +21080,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>449</v>
       </c>
@@ -20929,7 +21098,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>451</v>
       </c>
@@ -20949,7 +21118,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>453</v>
       </c>
@@ -20967,7 +21136,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>455</v>
       </c>
@@ -20985,7 +21154,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>457</v>
       </c>
@@ -21003,7 +21172,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>459</v>
       </c>
@@ -21021,7 +21190,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>461</v>
       </c>
@@ -21039,7 +21208,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>463</v>
       </c>
@@ -21057,7 +21226,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>465</v>
       </c>
@@ -21075,7 +21244,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>467</v>
       </c>
@@ -21093,7 +21262,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>469</v>
       </c>
@@ -21111,7 +21280,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>471</v>
       </c>
@@ -21129,7 +21298,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>473</v>
       </c>
@@ -21147,7 +21316,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>475</v>
       </c>
@@ -21167,7 +21336,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>477</v>
       </c>
@@ -21185,7 +21354,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>479</v>
       </c>
@@ -21203,7 +21372,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>481</v>
       </c>
@@ -21221,7 +21390,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>483</v>
       </c>
@@ -21239,7 +21408,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>485</v>
       </c>
@@ -21257,7 +21426,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>487</v>
       </c>
@@ -21275,7 +21444,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>489</v>
       </c>
@@ -21293,7 +21462,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>491</v>
       </c>
@@ -21311,7 +21480,7 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>493</v>
       </c>
@@ -21329,7 +21498,7 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>495</v>
       </c>
@@ -21347,7 +21516,7 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>497</v>
       </c>
@@ -21365,7 +21534,7 @@
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>498</v>
       </c>
@@ -21383,7 +21552,7 @@
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>500</v>
       </c>
@@ -21401,7 +21570,7 @@
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>502</v>
       </c>
@@ -21419,7 +21588,7 @@
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>504</v>
       </c>
@@ -21437,7 +21606,7 @@
       </c>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>506</v>
       </c>
@@ -21455,7 +21624,7 @@
       </c>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>508</v>
       </c>
@@ -21473,7 +21642,7 @@
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>510</v>
       </c>
@@ -21491,7 +21660,7 @@
       </c>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>512</v>
       </c>
@@ -21509,7 +21678,7 @@
       </c>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>514</v>
       </c>
@@ -21527,7 +21696,7 @@
       </c>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>516</v>
       </c>
@@ -21545,7 +21714,7 @@
       </c>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>518</v>
       </c>
@@ -21563,7 +21732,7 @@
       </c>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>520</v>
       </c>
@@ -21581,7 +21750,7 @@
       </c>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>522</v>
       </c>
@@ -21601,7 +21770,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>524</v>
       </c>
@@ -21619,7 +21788,7 @@
       </c>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>526</v>
       </c>
@@ -21637,7 +21806,7 @@
       </c>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>528</v>
       </c>
@@ -21655,7 +21824,7 @@
       </c>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>530</v>
       </c>
@@ -21673,7 +21842,7 @@
       </c>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>532</v>
       </c>
@@ -21691,7 +21860,7 @@
       </c>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>534</v>
       </c>
@@ -21709,7 +21878,7 @@
       </c>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>536</v>
       </c>
@@ -21727,7 +21896,7 @@
       </c>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>538</v>
       </c>
@@ -21745,7 +21914,7 @@
       </c>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>540</v>
       </c>
@@ -21763,7 +21932,7 @@
       </c>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>542</v>
       </c>
@@ -21781,7 +21950,7 @@
       </c>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>544</v>
       </c>
@@ -21799,7 +21968,7 @@
       </c>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>546</v>
       </c>
@@ -21817,7 +21986,7 @@
       </c>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>548</v>
       </c>
@@ -21835,7 +22004,7 @@
       </c>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>550</v>
       </c>
@@ -21853,7 +22022,7 @@
       </c>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>552</v>
       </c>
@@ -21871,7 +22040,7 @@
       </c>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>553</v>
       </c>
@@ -21889,7 +22058,7 @@
       </c>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>555</v>
       </c>
@@ -21907,7 +22076,7 @@
       </c>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>557</v>
       </c>
@@ -21927,7 +22096,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>559</v>
       </c>
@@ -21947,7 +22116,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>561</v>
       </c>
@@ -21965,7 +22134,7 @@
       </c>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>563</v>
       </c>
@@ -21983,7 +22152,7 @@
       </c>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>565</v>
       </c>
@@ -22001,7 +22170,7 @@
       </c>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>567</v>
       </c>
@@ -22019,7 +22188,7 @@
       </c>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>570</v>
       </c>
